--- a/data/lab_parameters.xlsx
+++ b/data/lab_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Documents\Toolbox\Trigger-Fix\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8CD2FC-1E80-4D92-ABA2-23FF56C677BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5864F284-DFFC-4F7B-9BB9-3C1F013E343C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24945" yWindow="3915" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
